--- a/rezultatai.xlsx
+++ b/rezultatai.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="396" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,6 +65,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -149,7 +150,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -193,10 +194,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>0.1464</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>13.0237</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.1464</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
